--- a/database/DeepProcessOprationAndProfit.xlsx
+++ b/database/DeepProcessOprationAndProfit.xlsx
@@ -172,7 +172,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,14 +182,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,16 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,15 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,6 +220,20 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,6 +256,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -273,7 +288,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,6 +302,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -295,38 +317,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,7 +336,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,7 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +417,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,19 +465,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,25 +525,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,67 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,21 +619,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -679,11 +633,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,6 +659,35 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,171 +715,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11324,14 +11293,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S116" sqref="S116"/>
+      <selection pane="bottomRight" activeCell="U105" sqref="U105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19495,6 +19464,59 @@
         <v>-153</v>
       </c>
     </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="59">
+        <v>43609</v>
+      </c>
+      <c r="B99" s="3">
+        <v>74.59</v>
+      </c>
+      <c r="C99" s="4">
+        <v>84.18</v>
+      </c>
+      <c r="D99" s="4">
+        <v>79.93</v>
+      </c>
+      <c r="E99" s="5">
+        <v>58.2</v>
+      </c>
+      <c r="F99" s="6">
+        <v>-103</v>
+      </c>
+      <c r="G99" s="7">
+        <v>-29</v>
+      </c>
+      <c r="H99" s="7">
+        <v>-99.2</v>
+      </c>
+      <c r="I99" s="7">
+        <v>14.4</v>
+      </c>
+      <c r="J99" s="8">
+        <v>-56.4</v>
+      </c>
+      <c r="K99" s="9">
+        <v>65.44</v>
+      </c>
+      <c r="L99" s="10">
+        <v>80.86</v>
+      </c>
+      <c r="M99" s="11">
+        <v>61.04</v>
+      </c>
+      <c r="N99" s="12">
+        <v>-78</v>
+      </c>
+      <c r="O99" s="13">
+        <v>-170</v>
+      </c>
+      <c r="P99" s="13">
+        <v>7</v>
+      </c>
+      <c r="Q99" s="14">
+        <v>-110</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:E1"/>

--- a/database/DeepProcessOprationAndProfit.xlsx
+++ b/database/DeepProcessOprationAndProfit.xlsx
@@ -166,11 +166,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -181,13 +181,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -195,60 +189,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -271,6 +213,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -288,30 +282,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,6 +298,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,13 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,25 +417,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,37 +441,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,31 +483,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,13 +525,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,32 +618,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,31 +653,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,6 +673,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,16 +700,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,133 +733,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11293,14 +11293,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U105" sqref="U105"/>
+      <selection pane="bottomRight" activeCell="T109" sqref="T109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19517,6 +19517,59 @@
         <v>-110</v>
       </c>
     </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="59">
+        <v>43616</v>
+      </c>
+      <c r="B100" s="3">
+        <v>75.19</v>
+      </c>
+      <c r="C100" s="4">
+        <v>83.26</v>
+      </c>
+      <c r="D100" s="4">
+        <v>81.8</v>
+      </c>
+      <c r="E100" s="5">
+        <v>57.19</v>
+      </c>
+      <c r="F100" s="6">
+        <v>-88.4</v>
+      </c>
+      <c r="G100" s="7">
+        <v>7</v>
+      </c>
+      <c r="H100" s="7">
+        <v>-46.6</v>
+      </c>
+      <c r="I100" s="7">
+        <v>2</v>
+      </c>
+      <c r="J100" s="8">
+        <v>-57.6</v>
+      </c>
+      <c r="K100" s="9">
+        <v>64.02</v>
+      </c>
+      <c r="L100" s="10">
+        <v>80.94</v>
+      </c>
+      <c r="M100" s="11">
+        <v>58.33</v>
+      </c>
+      <c r="N100" s="12">
+        <v>-25</v>
+      </c>
+      <c r="O100" s="13">
+        <v>70</v>
+      </c>
+      <c r="P100" s="13">
+        <v>-137</v>
+      </c>
+      <c r="Q100" s="14">
+        <v>-205</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:E1"/>

--- a/database/DeepProcessOprationAndProfit.xlsx
+++ b/database/DeepProcessOprationAndProfit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="24345" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="DeepProcessing" sheetId="1" r:id="rId1"/>
@@ -165,12 +165,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -182,10 +183,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,25 +198,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,21 +207,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,6 +226,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -265,31 +242,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,15 +290,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,6 +314,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,7 +337,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,7 +358,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799920651875362"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -393,31 +394,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,6 +418,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,7 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,13 +454,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,25 +514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,13 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,13 +544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,7 +556,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,35 +633,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,11 +664,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,17 +694,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,10 +734,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,137 +746,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -879,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -982,8 +995,56 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1111,7 +1172,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0915552877284726"/>
+          <c:y val="0.0272549340128054"/>
+          <c:w val="0.842412988860081"/>
+          <c:h val="0.530077878740363"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -2420,8 +2491,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1416254224"/>
-        <c:axId val="-1416248784"/>
+        <c:axId val="-1802765456"/>
+        <c:axId val="-1802770352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3061,11 +3132,11 @@
         </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
-        <c:axId val="-1416260208"/>
-        <c:axId val="-1416258576"/>
+        <c:axId val="-1802768720"/>
+        <c:axId val="-1802764368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1416254224"/>
+        <c:axId val="-1802765456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3104,7 +3175,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1416248784"/>
+        <c:crossAx val="-1802770352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3112,7 +3183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1416248784"/>
+        <c:axId val="-1802770352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3159,12 +3230,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1416254224"/>
+        <c:crossAx val="-1802765456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1416260208"/>
+        <c:axId val="-1802768720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3193,7 +3264,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1416258576"/>
+        <c:crossAx val="-1802764368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3201,7 +3272,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1416258576"/>
+        <c:axId val="-1802764368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -3235,7 +3306,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1416260208"/>
+        <c:crossAx val="-1802768720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3345,8 +3416,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>山东淀粉厂</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4005,8 +4078,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1416258032"/>
-        <c:axId val="-1416252048"/>
+        <c:axId val="-1802774704"/>
+        <c:axId val="-1802778512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4640,11 +4713,11 @@
         </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
-        <c:axId val="-1416259664"/>
-        <c:axId val="-1416262384"/>
+        <c:axId val="-1802763824"/>
+        <c:axId val="-1802777968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1416258032"/>
+        <c:axId val="-1802774704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4686,7 +4759,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1416252048"/>
+        <c:crossAx val="-1802778512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4694,7 +4767,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1416252048"/>
+        <c:axId val="-1802778512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4743,12 +4816,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1416258032"/>
+        <c:crossAx val="-1802774704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-1416259664"/>
+        <c:axId val="-1802763824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4777,14 +4850,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1416262384"/>
+        <c:crossAx val="-1802777968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1416262384"/>
+        <c:axId val="-1802777968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -4821,7 +4894,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1416259664"/>
+        <c:crossAx val="-1802763824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4966,7 +5039,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0963473588783703"/>
+          <c:y val="0.108823657389259"/>
+          <c:w val="0.838181040446683"/>
+          <c:h val="0.530077878740363"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -6275,8 +6358,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1416249872"/>
-        <c:axId val="-1416252592"/>
+        <c:axId val="-1802764912"/>
+        <c:axId val="-1802776880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6916,11 +6999,11 @@
         </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
-        <c:axId val="-1416249328"/>
-        <c:axId val="-1416251504"/>
+        <c:axId val="-1802774160"/>
+        <c:axId val="-1802773072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1416249872"/>
+        <c:axId val="-1802764912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6959,7 +7042,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1416252592"/>
+        <c:crossAx val="-1802776880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6967,7 +7050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1416252592"/>
+        <c:axId val="-1802776880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7014,12 +7097,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1416249872"/>
+        <c:crossAx val="-1802764912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-1416249328"/>
+        <c:axId val="-1802774160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7048,14 +7131,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1416251504"/>
+        <c:crossAx val="-1802773072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1416251504"/>
+        <c:axId val="-1802773072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7088,7 +7171,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1416249328"/>
+        <c:crossAx val="-1802774160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7764,8 +7847,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1416257488"/>
-        <c:axId val="-1416262928"/>
+        <c:axId val="-1802772528"/>
+        <c:axId val="-1802771984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8405,11 +8488,11 @@
         </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
-        <c:axId val="-1416256400"/>
-        <c:axId val="-1416250960"/>
+        <c:axId val="-1802771440"/>
+        <c:axId val="-1907053744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1416257488"/>
+        <c:axId val="-1802772528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8448,7 +8531,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1416262928"/>
+        <c:crossAx val="-1802771984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -8456,7 +8539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1416262928"/>
+        <c:axId val="-1802771984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8503,12 +8586,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1416257488"/>
+        <c:crossAx val="-1802772528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-1416256400"/>
+        <c:axId val="-1802771440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8537,14 +8620,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1416250960"/>
+        <c:crossAx val="-1907053744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1416250960"/>
+        <c:axId val="-1907053744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8577,7 +8660,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1416256400"/>
+        <c:crossAx val="-1802771440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10907,15 +10990,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>102393</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>26035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>236775</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>67293</xdr:rowOff>
+      <xdr:colOff>217170</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -10924,10 +11007,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1295400" y="17247235"/>
-          <a:ext cx="10799445" cy="6479540"/>
-          <a:chOff x="2066925" y="1940718"/>
-          <a:chExt cx="10795912" cy="7202832"/>
+          <a:off x="1238250" y="20942935"/>
+          <a:ext cx="10837545" cy="6555740"/>
+          <a:chOff x="2162145" y="3041896"/>
+          <a:chExt cx="10833998" cy="7287538"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame>
@@ -10936,7 +11019,7 @@
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="2066926" y="1940718"/>
+          <a:off x="2162145" y="3116014"/>
           <a:ext cx="5400000" cy="3600000"/>
         </xdr:xfrm>
         <a:graphic>
@@ -10951,7 +11034,7 @@
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="7462837" y="1940718"/>
+          <a:off x="7596143" y="3041896"/>
           <a:ext cx="5400000" cy="3600000"/>
         </xdr:xfrm>
         <a:graphic>
@@ -10966,7 +11049,7 @@
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="2066925" y="5543550"/>
+          <a:off x="2171666" y="6729434"/>
           <a:ext cx="5400000" cy="3600000"/>
         </xdr:xfrm>
         <a:graphic>
@@ -10981,7 +11064,7 @@
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="7462837" y="5534025"/>
+          <a:off x="7586621" y="6719909"/>
           <a:ext cx="5400000" cy="3600000"/>
         </xdr:xfrm>
         <a:graphic>
@@ -11293,14 +11376,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C99" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T109" sqref="T109"/>
+      <selection pane="bottomRight" activeCell="T113" sqref="T113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19100,49 +19183,49 @@
       <c r="B92" s="3">
         <v>77.81</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="60">
         <v>86.56</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="60">
         <v>80.7</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="61">
         <v>67.41</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92" s="62">
         <v>11.6</v>
       </c>
-      <c r="G92" s="7">
+      <c r="G92" s="63">
         <v>25.4</v>
       </c>
-      <c r="H92" s="7">
+      <c r="H92" s="63">
         <v>-28.6</v>
       </c>
-      <c r="I92" s="7">
+      <c r="I92" s="63">
         <v>8.4</v>
       </c>
-      <c r="J92" s="8">
+      <c r="J92" s="66">
         <v>-34</v>
       </c>
-      <c r="K92" s="9">
+      <c r="K92" s="67">
         <v>67.91</v>
       </c>
-      <c r="L92" s="10">
+      <c r="L92" s="68">
         <v>81.17</v>
       </c>
-      <c r="M92" s="11">
+      <c r="M92" s="69">
         <v>66.76</v>
       </c>
-      <c r="N92" s="12">
+      <c r="N92" s="70">
         <v>161</v>
       </c>
-      <c r="O92" s="13">
+      <c r="O92" s="71">
         <v>237</v>
       </c>
-      <c r="P92" s="13">
+      <c r="P92" s="71">
         <v>140</v>
       </c>
-      <c r="Q92" s="14">
+      <c r="Q92" s="75">
         <v>-143</v>
       </c>
     </row>
@@ -19153,49 +19236,49 @@
       <c r="B93" s="3">
         <v>77.3</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="60">
         <v>87.23</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="60">
         <v>78.81</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93" s="61">
         <v>67.41</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F93" s="62">
         <v>-51</v>
       </c>
-      <c r="G93" s="7">
+      <c r="G93" s="63">
         <v>19</v>
       </c>
-      <c r="H93" s="7">
+      <c r="H93" s="63">
         <v>-28.6</v>
       </c>
-      <c r="I93" s="7">
+      <c r="I93" s="63">
         <v>-27.2</v>
       </c>
-      <c r="J93" s="8">
+      <c r="J93" s="66">
         <v>-51.6</v>
       </c>
-      <c r="K93" s="9">
+      <c r="K93" s="67">
         <v>68.87</v>
       </c>
-      <c r="L93" s="10">
+      <c r="L93" s="68">
         <v>83.99</v>
       </c>
-      <c r="M93" s="11">
+      <c r="M93" s="69">
         <v>60.9</v>
       </c>
-      <c r="N93" s="12">
+      <c r="N93" s="70">
         <v>51</v>
       </c>
-      <c r="O93" s="13">
+      <c r="O93" s="71">
         <v>125</v>
       </c>
-      <c r="P93" s="13">
+      <c r="P93" s="71">
         <v>59</v>
       </c>
-      <c r="Q93" s="14">
+      <c r="Q93" s="75">
         <v>-293</v>
       </c>
     </row>
@@ -19206,49 +19289,49 @@
       <c r="B94" s="3">
         <v>79.91</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="60">
         <v>87.1</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="60">
         <v>82.3</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E94" s="61">
         <v>73.19</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F94" s="62">
         <v>-51</v>
       </c>
-      <c r="G94" s="7">
+      <c r="G94" s="63">
         <v>9</v>
       </c>
-      <c r="H94" s="7">
+      <c r="H94" s="63">
         <v>-41.4</v>
       </c>
-      <c r="I94" s="7">
+      <c r="I94" s="63">
         <v>-43.6</v>
       </c>
-      <c r="J94" s="8">
+      <c r="J94" s="66">
         <v>-95.5</v>
       </c>
-      <c r="K94" s="9">
+      <c r="K94" s="67">
         <v>69.31</v>
       </c>
-      <c r="L94" s="10">
+      <c r="L94" s="68">
         <v>84.79</v>
       </c>
-      <c r="M94" s="11">
+      <c r="M94" s="69">
         <v>60.86</v>
       </c>
-      <c r="N94" s="12">
+      <c r="N94" s="70">
         <v>40</v>
       </c>
-      <c r="O94" s="13">
+      <c r="O94" s="71">
         <v>18</v>
       </c>
-      <c r="P94" s="13">
+      <c r="P94" s="71">
         <v>-47</v>
       </c>
-      <c r="Q94" s="14">
+      <c r="Q94" s="75">
         <v>-425</v>
       </c>
     </row>
@@ -19259,49 +19342,49 @@
       <c r="B95" s="3">
         <v>79.31</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="60">
         <v>85.93</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="60">
         <v>81.39</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="61">
         <v>73.89</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F95" s="62">
         <v>-82.4</v>
       </c>
-      <c r="G95" s="7">
+      <c r="G95" s="63">
         <v>7</v>
       </c>
-      <c r="H95" s="7">
+      <c r="H95" s="63">
         <v>-38.4</v>
       </c>
-      <c r="I95" s="7">
+      <c r="I95" s="63">
         <v>-36.6</v>
       </c>
-      <c r="J95" s="8">
+      <c r="J95" s="66">
         <v>-98</v>
       </c>
-      <c r="K95" s="9">
+      <c r="K95" s="67">
         <v>68.48</v>
       </c>
-      <c r="L95" s="10">
+      <c r="L95" s="68">
         <v>84.79</v>
       </c>
-      <c r="M95" s="11">
+      <c r="M95" s="69">
         <v>62.12</v>
       </c>
-      <c r="N95" s="12">
+      <c r="N95" s="70">
         <v>-29</v>
       </c>
-      <c r="O95" s="13">
+      <c r="O95" s="71">
         <v>-5</v>
       </c>
-      <c r="P95" s="13">
+      <c r="P95" s="71">
         <v>4</v>
       </c>
-      <c r="Q95" s="14">
+      <c r="Q95" s="75">
         <v>-291</v>
       </c>
     </row>
@@ -19312,49 +19395,49 @@
       <c r="B96" s="3">
         <v>76.53</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="60">
         <v>81.78</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="60">
         <v>80.11</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="61">
         <v>73.89</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F96" s="62">
         <v>-92.4</v>
       </c>
-      <c r="G96" s="7">
+      <c r="G96" s="63">
         <v>0</v>
       </c>
-      <c r="H96" s="7">
+      <c r="H96" s="63">
         <v>-38.4</v>
       </c>
-      <c r="I96" s="7">
+      <c r="I96" s="63">
         <v>-21.2</v>
       </c>
-      <c r="J96" s="8">
+      <c r="J96" s="66">
         <v>-101.1</v>
       </c>
-      <c r="K96" s="9">
+      <c r="K96" s="67">
         <v>63.79</v>
       </c>
-      <c r="L96" s="10">
+      <c r="L96" s="68">
         <v>78.37</v>
       </c>
-      <c r="M96" s="11">
+      <c r="M96" s="69">
         <v>62.12</v>
       </c>
-      <c r="N96" s="12">
+      <c r="N96" s="70">
         <v>75</v>
       </c>
-      <c r="O96" s="13">
+      <c r="O96" s="71">
         <v>-35</v>
       </c>
-      <c r="P96" s="13">
+      <c r="P96" s="71">
         <v>-17</v>
       </c>
-      <c r="Q96" s="14">
+      <c r="Q96" s="75">
         <v>-295</v>
       </c>
     </row>
@@ -19365,49 +19448,49 @@
       <c r="B97" s="3">
         <v>76.34</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="60">
         <v>82.72</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="60">
         <v>81.65</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="61">
         <v>72.87</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F97" s="62">
         <v>-86</v>
       </c>
-      <c r="G97" s="7">
+      <c r="G97" s="63">
         <v>-69.6</v>
       </c>
-      <c r="H97" s="7">
+      <c r="H97" s="63">
         <v>-65.4</v>
       </c>
-      <c r="I97" s="7">
+      <c r="I97" s="63">
         <v>-6.7</v>
       </c>
-      <c r="J97" s="8">
+      <c r="J97" s="66">
         <v>-72</v>
       </c>
-      <c r="K97" s="9">
+      <c r="K97" s="67">
         <v>61.6</v>
       </c>
-      <c r="L97" s="10">
+      <c r="L97" s="68">
         <v>75.36</v>
       </c>
-      <c r="M97" s="11">
+      <c r="M97" s="69">
         <v>59.78</v>
       </c>
-      <c r="N97" s="12">
+      <c r="N97" s="70">
         <v>122</v>
       </c>
-      <c r="O97" s="13">
+      <c r="O97" s="71">
         <v>31</v>
       </c>
-      <c r="P97" s="13">
+      <c r="P97" s="71">
         <v>52</v>
       </c>
-      <c r="Q97" s="14">
+      <c r="Q97" s="75">
         <v>-214</v>
       </c>
     </row>
@@ -19418,49 +19501,49 @@
       <c r="B98" s="3">
         <v>74.37</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="60">
         <v>84.18</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="60">
         <v>80.55</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="61">
         <v>58.2</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F98" s="62">
         <v>-75.8</v>
       </c>
-      <c r="G98" s="7">
+      <c r="G98" s="63">
         <v>-43.8</v>
       </c>
-      <c r="H98" s="7">
+      <c r="H98" s="63">
         <v>-107.8</v>
       </c>
-      <c r="I98" s="7">
+      <c r="I98" s="63">
         <v>32</v>
       </c>
-      <c r="J98" s="8">
+      <c r="J98" s="66">
         <v>-71.6</v>
       </c>
-      <c r="K98" s="9">
+      <c r="K98" s="67">
         <v>61.25</v>
       </c>
-      <c r="L98" s="10">
+      <c r="L98" s="68">
         <v>74.72</v>
       </c>
-      <c r="M98" s="11">
+      <c r="M98" s="69">
         <v>59.78</v>
       </c>
-      <c r="N98" s="12">
+      <c r="N98" s="70">
         <v>-163</v>
       </c>
-      <c r="O98" s="13">
+      <c r="O98" s="71">
         <v>-97</v>
       </c>
-      <c r="P98" s="13">
+      <c r="P98" s="71">
         <v>38</v>
       </c>
-      <c r="Q98" s="14">
+      <c r="Q98" s="75">
         <v>-153</v>
       </c>
     </row>
@@ -19471,49 +19554,49 @@
       <c r="B99" s="3">
         <v>74.59</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="60">
         <v>84.18</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="60">
         <v>79.93</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99" s="61">
         <v>58.2</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F99" s="62">
         <v>-103</v>
       </c>
-      <c r="G99" s="7">
+      <c r="G99" s="63">
         <v>-29</v>
       </c>
-      <c r="H99" s="7">
+      <c r="H99" s="63">
         <v>-99.2</v>
       </c>
-      <c r="I99" s="7">
+      <c r="I99" s="63">
         <v>14.4</v>
       </c>
-      <c r="J99" s="8">
+      <c r="J99" s="66">
         <v>-56.4</v>
       </c>
-      <c r="K99" s="9">
+      <c r="K99" s="67">
         <v>65.44</v>
       </c>
-      <c r="L99" s="10">
+      <c r="L99" s="68">
         <v>80.86</v>
       </c>
-      <c r="M99" s="11">
+      <c r="M99" s="69">
         <v>61.04</v>
       </c>
-      <c r="N99" s="12">
+      <c r="N99" s="70">
         <v>-78</v>
       </c>
-      <c r="O99" s="13">
+      <c r="O99" s="71">
         <v>-170</v>
       </c>
-      <c r="P99" s="13">
+      <c r="P99" s="71">
         <v>7</v>
       </c>
-      <c r="Q99" s="14">
+      <c r="Q99" s="75">
         <v>-110</v>
       </c>
     </row>
@@ -19524,50 +19607,1061 @@
       <c r="B100" s="3">
         <v>75.19</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="60">
         <v>83.26</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="60">
         <v>81.8</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E100" s="61">
         <v>57.19</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F100" s="62">
         <v>-88.4</v>
       </c>
-      <c r="G100" s="7">
+      <c r="G100" s="63">
         <v>7</v>
       </c>
-      <c r="H100" s="7">
+      <c r="H100" s="63">
         <v>-46.6</v>
       </c>
-      <c r="I100" s="7">
+      <c r="I100" s="63">
         <v>2</v>
       </c>
-      <c r="J100" s="8">
+      <c r="J100" s="66">
         <v>-57.6</v>
       </c>
-      <c r="K100" s="9">
+      <c r="K100" s="67">
         <v>64.02</v>
       </c>
-      <c r="L100" s="10">
+      <c r="L100" s="68">
         <v>80.94</v>
       </c>
-      <c r="M100" s="11">
+      <c r="M100" s="69">
         <v>58.33</v>
       </c>
-      <c r="N100" s="12">
+      <c r="N100" s="70">
         <v>-25</v>
       </c>
-      <c r="O100" s="13">
+      <c r="O100" s="71">
         <v>70</v>
       </c>
-      <c r="P100" s="13">
+      <c r="P100" s="71">
         <v>-137</v>
       </c>
-      <c r="Q100" s="14">
+      <c r="Q100" s="75">
         <v>-205</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="59">
+        <v>43622</v>
+      </c>
+      <c r="B101" s="3">
+        <v>67.38</v>
+      </c>
+      <c r="C101" s="60">
+        <v>80.76</v>
+      </c>
+      <c r="D101" s="60">
+        <v>70.99</v>
+      </c>
+      <c r="E101" s="61">
+        <v>57.19</v>
+      </c>
+      <c r="F101" s="62">
+        <v>-74.6</v>
+      </c>
+      <c r="G101" s="63">
+        <v>30.8</v>
+      </c>
+      <c r="H101" s="63">
+        <v>-34.8</v>
+      </c>
+      <c r="I101" s="63">
+        <v>10.8</v>
+      </c>
+      <c r="J101" s="66">
+        <v>-38.6</v>
+      </c>
+      <c r="K101" s="67">
+        <v>63.05</v>
+      </c>
+      <c r="L101" s="68">
+        <v>81.87</v>
+      </c>
+      <c r="M101" s="69">
+        <v>48.23</v>
+      </c>
+      <c r="N101" s="70">
+        <v>-73</v>
+      </c>
+      <c r="O101" s="71">
+        <v>155</v>
+      </c>
+      <c r="P101" s="71">
+        <v>53</v>
+      </c>
+      <c r="Q101" s="75">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="102" customFormat="1" spans="1:17">
+      <c r="A102" s="59">
+        <v>43630</v>
+      </c>
+      <c r="B102" s="3">
+        <v>63.81</v>
+      </c>
+      <c r="C102" s="60">
+        <v>70.16</v>
+      </c>
+      <c r="D102" s="64">
+        <v>70.8</v>
+      </c>
+      <c r="E102" s="61">
+        <v>59.36</v>
+      </c>
+      <c r="F102" s="62">
+        <v>-72.7</v>
+      </c>
+      <c r="G102" s="63">
+        <v>38</v>
+      </c>
+      <c r="H102" s="63">
+        <v>-21.4</v>
+      </c>
+      <c r="I102" s="63">
+        <v>16.4</v>
+      </c>
+      <c r="J102" s="66">
+        <v>-27.2</v>
+      </c>
+      <c r="K102" s="72">
+        <v>65.59</v>
+      </c>
+      <c r="L102" s="73">
+        <v>78.63</v>
+      </c>
+      <c r="M102" s="74">
+        <v>64.9</v>
+      </c>
+      <c r="N102" s="70">
+        <v>-73</v>
+      </c>
+      <c r="O102" s="71">
+        <v>164</v>
+      </c>
+      <c r="P102" s="71">
+        <v>53</v>
+      </c>
+      <c r="Q102" s="75">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" s="59">
+        <v>43637</v>
+      </c>
+      <c r="B103" s="3">
+        <v>64.88</v>
+      </c>
+      <c r="C103" s="60">
+        <v>73.69</v>
+      </c>
+      <c r="D103" s="60">
+        <v>67.34</v>
+      </c>
+      <c r="E103" s="61">
+        <v>60.22</v>
+      </c>
+      <c r="F103" s="62">
+        <v>-71.1</v>
+      </c>
+      <c r="G103" s="63">
+        <v>-30</v>
+      </c>
+      <c r="H103" s="63">
+        <v>-18.6</v>
+      </c>
+      <c r="I103" s="63">
+        <v>13.4</v>
+      </c>
+      <c r="J103" s="66">
+        <v>-35.4</v>
+      </c>
+      <c r="K103" s="67">
+        <v>66.04</v>
+      </c>
+      <c r="L103" s="68">
+        <v>81.62</v>
+      </c>
+      <c r="M103" s="69">
+        <v>60.61</v>
+      </c>
+      <c r="N103" s="70">
+        <v>83</v>
+      </c>
+      <c r="O103" s="71">
+        <v>258</v>
+      </c>
+      <c r="P103" s="71">
+        <v>53</v>
+      </c>
+      <c r="Q103" s="75">
+        <v>-315</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104" s="59">
+        <v>43644</v>
+      </c>
+      <c r="C104" s="60">
+        <v>78.42</v>
+      </c>
+      <c r="D104" s="60">
+        <v>69.11</v>
+      </c>
+      <c r="E104" s="61">
+        <v>60.22</v>
+      </c>
+      <c r="F104" s="62">
+        <v>-69.1</v>
+      </c>
+      <c r="G104" s="63">
+        <v>-25</v>
+      </c>
+      <c r="H104" s="63">
+        <v>-20.72</v>
+      </c>
+      <c r="I104" s="63">
+        <v>22.2</v>
+      </c>
+      <c r="J104" s="66">
+        <v>-35.66</v>
+      </c>
+      <c r="K104" s="67">
+        <v>67.04</v>
+      </c>
+      <c r="L104" s="68">
+        <v>82.83</v>
+      </c>
+      <c r="M104" s="69">
+        <v>59.09</v>
+      </c>
+      <c r="N104" s="70">
+        <v>193</v>
+      </c>
+      <c r="O104" s="71">
+        <v>418</v>
+      </c>
+      <c r="P104" s="71">
+        <v>53</v>
+      </c>
+      <c r="Q104" s="75">
+        <v>-416</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105" s="59">
+        <v>43651</v>
+      </c>
+      <c r="C105" s="60">
+        <v>76.64</v>
+      </c>
+      <c r="D105" s="60">
+        <v>67.23</v>
+      </c>
+      <c r="E105" s="61">
+        <v>60.22</v>
+      </c>
+      <c r="F105" s="62">
+        <v>-80.2</v>
+      </c>
+      <c r="G105" s="63">
+        <v>10</v>
+      </c>
+      <c r="H105" s="63">
+        <v>3.28</v>
+      </c>
+      <c r="I105" s="63">
+        <v>-4.8</v>
+      </c>
+      <c r="J105" s="66">
+        <v>-82.98</v>
+      </c>
+      <c r="K105" s="67">
+        <v>66.01</v>
+      </c>
+      <c r="L105" s="68">
+        <v>84.68</v>
+      </c>
+      <c r="M105" s="69">
+        <v>50.29</v>
+      </c>
+      <c r="N105" s="70">
+        <v>58</v>
+      </c>
+      <c r="O105" s="71">
+        <v>198</v>
+      </c>
+      <c r="P105" s="71">
+        <v>-203</v>
+      </c>
+      <c r="Q105" s="75">
+        <v>-533</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106" s="59">
+        <v>43658</v>
+      </c>
+      <c r="C106" s="60">
+        <v>75.18</v>
+      </c>
+      <c r="D106" s="60">
+        <v>74.43</v>
+      </c>
+      <c r="E106" s="61">
+        <v>45.04</v>
+      </c>
+      <c r="F106" s="62">
+        <v>-65.7</v>
+      </c>
+      <c r="G106" s="63">
+        <v>20</v>
+      </c>
+      <c r="H106" s="63">
+        <v>-2.72</v>
+      </c>
+      <c r="I106" s="63">
+        <v>-8.5</v>
+      </c>
+      <c r="J106" s="66">
+        <v>-96.6</v>
+      </c>
+      <c r="K106" s="67">
+        <v>61.09</v>
+      </c>
+      <c r="L106" s="68">
+        <v>73.24</v>
+      </c>
+      <c r="M106" s="69">
+        <v>56.57</v>
+      </c>
+      <c r="N106" s="70">
+        <v>62</v>
+      </c>
+      <c r="O106" s="71">
+        <v>193</v>
+      </c>
+      <c r="P106" s="71">
+        <v>-221</v>
+      </c>
+      <c r="Q106" s="75">
+        <v>-443</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107" s="59">
+        <v>43665</v>
+      </c>
+      <c r="C107" s="60">
+        <v>73.57</v>
+      </c>
+      <c r="D107" s="60">
+        <v>73.18</v>
+      </c>
+      <c r="E107" s="61">
+        <v>47.93</v>
+      </c>
+      <c r="F107" s="62">
+        <v>-67.7</v>
+      </c>
+      <c r="G107" s="63">
+        <v>25</v>
+      </c>
+      <c r="H107" s="63">
+        <v>-2.72</v>
+      </c>
+      <c r="I107" s="63">
+        <v>-7</v>
+      </c>
+      <c r="J107" s="66">
+        <v>-100.2</v>
+      </c>
+      <c r="K107" s="67">
+        <v>53.52</v>
+      </c>
+      <c r="L107" s="68">
+        <v>61.25</v>
+      </c>
+      <c r="M107" s="69">
+        <v>51.52</v>
+      </c>
+      <c r="N107" s="70">
+        <v>33</v>
+      </c>
+      <c r="O107" s="71">
+        <v>20</v>
+      </c>
+      <c r="P107" s="71">
+        <v>-276</v>
+      </c>
+      <c r="Q107" s="75">
+        <v>-545</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="A108" s="59">
+        <v>43672</v>
+      </c>
+      <c r="C108" s="60">
+        <v>82.41</v>
+      </c>
+      <c r="D108" s="60">
+        <v>73.36</v>
+      </c>
+      <c r="E108" s="61">
+        <v>45.04</v>
+      </c>
+      <c r="F108" s="62">
+        <v>-75</v>
+      </c>
+      <c r="G108" s="63">
+        <v>25</v>
+      </c>
+      <c r="H108" s="63">
+        <v>-12.8</v>
+      </c>
+      <c r="I108" s="63">
+        <v>4.1</v>
+      </c>
+      <c r="J108" s="66">
+        <v>-100.08</v>
+      </c>
+      <c r="K108" s="67">
+        <v>45.18</v>
+      </c>
+      <c r="L108" s="68">
+        <v>49.05</v>
+      </c>
+      <c r="M108" s="69">
+        <v>46.89</v>
+      </c>
+      <c r="N108" s="70">
+        <v>-53</v>
+      </c>
+      <c r="O108" s="71">
+        <v>38</v>
+      </c>
+      <c r="P108" s="71">
+        <v>-291</v>
+      </c>
+      <c r="Q108" s="75">
+        <v>-545</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="A109" s="59">
+        <v>43679</v>
+      </c>
+      <c r="C109" s="60">
+        <v>82.41</v>
+      </c>
+      <c r="D109" s="60">
+        <v>69.45</v>
+      </c>
+      <c r="E109" s="61">
+        <v>45.04</v>
+      </c>
+      <c r="F109" s="62">
+        <v>-100</v>
+      </c>
+      <c r="G109" s="63">
+        <v>23</v>
+      </c>
+      <c r="H109" s="63">
+        <v>-21.9</v>
+      </c>
+      <c r="I109" s="63">
+        <v>-26.8</v>
+      </c>
+      <c r="J109" s="66">
+        <v>-85.04</v>
+      </c>
+      <c r="K109" s="67">
+        <v>43.72</v>
+      </c>
+      <c r="L109" s="68">
+        <v>50.48</v>
+      </c>
+      <c r="M109" s="69">
+        <v>36.79</v>
+      </c>
+      <c r="N109" s="70">
+        <v>-70</v>
+      </c>
+      <c r="O109" s="71">
+        <v>-33</v>
+      </c>
+      <c r="P109" s="71">
+        <v>-369</v>
+      </c>
+      <c r="Q109" s="75">
+        <v>-545</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110" s="59">
+        <v>43686</v>
+      </c>
+      <c r="C110" s="60">
+        <v>82.41</v>
+      </c>
+      <c r="D110" s="60">
+        <v>60.92</v>
+      </c>
+      <c r="E110" s="61">
+        <v>45.04</v>
+      </c>
+      <c r="F110" s="62">
+        <v>-92.2</v>
+      </c>
+      <c r="G110" s="63">
+        <v>-18</v>
+      </c>
+      <c r="H110" s="63">
+        <v>-9.1</v>
+      </c>
+      <c r="I110" s="63">
+        <v>7.7</v>
+      </c>
+      <c r="J110" s="66">
+        <v>-59.66</v>
+      </c>
+      <c r="K110" s="67">
+        <v>41.15</v>
+      </c>
+      <c r="L110" s="68">
+        <v>43.92</v>
+      </c>
+      <c r="M110" s="69">
+        <v>36.79</v>
+      </c>
+      <c r="N110" s="70">
+        <v>-53</v>
+      </c>
+      <c r="O110" s="71">
+        <v>36</v>
+      </c>
+      <c r="P110" s="71">
+        <v>-354</v>
+      </c>
+      <c r="Q110" s="75">
+        <v>-483</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="A111" s="59">
+        <v>43693</v>
+      </c>
+      <c r="C111" s="60">
+        <v>82.41</v>
+      </c>
+      <c r="D111" s="60">
+        <v>57.43</v>
+      </c>
+      <c r="E111" s="61">
+        <v>60.22</v>
+      </c>
+      <c r="F111" s="62">
+        <v>-38.6</v>
+      </c>
+      <c r="G111" s="63">
+        <v>-3</v>
+      </c>
+      <c r="H111" s="63">
+        <v>6.9</v>
+      </c>
+      <c r="I111" s="63">
+        <v>29.2</v>
+      </c>
+      <c r="J111" s="66">
+        <v>-35.16</v>
+      </c>
+      <c r="K111" s="67">
+        <v>40.43</v>
+      </c>
+      <c r="L111" s="68">
+        <v>43.92</v>
+      </c>
+      <c r="M111" s="69">
+        <v>35.03</v>
+      </c>
+      <c r="N111" s="70">
+        <v>-44</v>
+      </c>
+      <c r="O111" s="71">
+        <v>102</v>
+      </c>
+      <c r="P111" s="71">
+        <v>-363</v>
+      </c>
+      <c r="Q111" s="75">
+        <v>-433</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112" s="59">
+        <v>43700</v>
+      </c>
+      <c r="C112" s="60">
+        <v>79.83</v>
+      </c>
+      <c r="D112" s="60">
+        <v>64.42</v>
+      </c>
+      <c r="E112" s="61">
+        <v>57.69</v>
+      </c>
+      <c r="F112" s="62">
+        <v>-21.4</v>
+      </c>
+      <c r="G112" s="63">
+        <v>-6.8</v>
+      </c>
+      <c r="H112" s="63">
+        <v>-2.9</v>
+      </c>
+      <c r="I112" s="63">
+        <v>73</v>
+      </c>
+      <c r="J112" s="66">
+        <v>-8.48</v>
+      </c>
+      <c r="K112" s="67">
+        <v>49.98</v>
+      </c>
+      <c r="L112" s="68">
+        <v>58.36</v>
+      </c>
+      <c r="M112" s="69">
+        <v>38.06</v>
+      </c>
+      <c r="N112" s="70">
+        <v>40</v>
+      </c>
+      <c r="O112" s="71">
+        <v>119</v>
+      </c>
+      <c r="P112" s="71">
+        <v>-318</v>
+      </c>
+      <c r="Q112" s="75">
+        <v>-330</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113" s="59">
+        <v>43707</v>
+      </c>
+      <c r="C113" s="60">
+        <v>77.91</v>
+      </c>
+      <c r="D113" s="60">
+        <v>69.19</v>
+      </c>
+      <c r="E113" s="61">
+        <v>57.69</v>
+      </c>
+      <c r="F113" s="62">
+        <v>28.4</v>
+      </c>
+      <c r="G113" s="63">
+        <v>42.8</v>
+      </c>
+      <c r="H113" s="63">
+        <v>21.8</v>
+      </c>
+      <c r="I113" s="63">
+        <v>111.9</v>
+      </c>
+      <c r="J113" s="66">
+        <v>35.54</v>
+      </c>
+      <c r="K113" s="67">
+        <v>55.54</v>
+      </c>
+      <c r="L113" s="68">
+        <v>63.46</v>
+      </c>
+      <c r="M113" s="69">
+        <v>57.32</v>
+      </c>
+      <c r="N113" s="70">
+        <v>16</v>
+      </c>
+      <c r="O113" s="71">
+        <v>230</v>
+      </c>
+      <c r="P113" s="71">
+        <v>-258</v>
+      </c>
+      <c r="Q113" s="75">
+        <v>-418</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114" s="59">
+        <v>43714</v>
+      </c>
+      <c r="C114" s="60">
+        <v>79.83</v>
+      </c>
+      <c r="D114" s="60">
+        <v>73.54</v>
+      </c>
+      <c r="E114" s="61">
+        <v>57.69</v>
+      </c>
+      <c r="F114" s="62">
+        <v>42.2</v>
+      </c>
+      <c r="G114" s="63">
+        <v>46.6</v>
+      </c>
+      <c r="H114" s="63">
+        <v>23</v>
+      </c>
+      <c r="I114" s="63">
+        <v>91.3</v>
+      </c>
+      <c r="J114" s="66">
+        <v>20.2</v>
+      </c>
+      <c r="K114" s="67">
+        <v>58.79</v>
+      </c>
+      <c r="L114" s="68">
+        <v>66.82</v>
+      </c>
+      <c r="M114" s="69">
+        <v>58.59</v>
+      </c>
+      <c r="N114" s="70">
+        <v>67</v>
+      </c>
+      <c r="O114" s="71">
+        <v>230</v>
+      </c>
+      <c r="P114" s="71">
+        <v>-279</v>
+      </c>
+      <c r="Q114" s="75">
+        <v>-399</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115" s="59">
+        <v>43721</v>
+      </c>
+      <c r="C115" s="60">
+        <v>79.83</v>
+      </c>
+      <c r="D115" s="60">
+        <v>75.81</v>
+      </c>
+      <c r="E115" s="61">
+        <v>54.15</v>
+      </c>
+      <c r="F115" s="62">
+        <v>-17</v>
+      </c>
+      <c r="G115" s="63">
+        <v>28.8</v>
+      </c>
+      <c r="H115" s="63">
+        <v>38.6</v>
+      </c>
+      <c r="I115" s="63">
+        <v>90.9</v>
+      </c>
+      <c r="J115" s="66">
+        <v>-5.68</v>
+      </c>
+      <c r="K115" s="67">
+        <v>62.84</v>
+      </c>
+      <c r="L115" s="68">
+        <v>75.09</v>
+      </c>
+      <c r="M115" s="69">
+        <v>58.59</v>
+      </c>
+      <c r="N115" s="70">
+        <v>75</v>
+      </c>
+      <c r="O115" s="71">
+        <v>147</v>
+      </c>
+      <c r="P115" s="71">
+        <v>-273</v>
+      </c>
+      <c r="Q115" s="75">
+        <v>-455</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" s="59">
+        <v>43728</v>
+      </c>
+      <c r="C116" s="60">
+        <v>79.83</v>
+      </c>
+      <c r="D116" s="60">
+        <v>74.77</v>
+      </c>
+      <c r="E116" s="61">
+        <v>54.15</v>
+      </c>
+      <c r="F116" s="62">
+        <v>-12</v>
+      </c>
+      <c r="G116" s="63">
+        <v>34.8</v>
+      </c>
+      <c r="H116" s="63">
+        <v>58.6</v>
+      </c>
+      <c r="I116" s="63">
+        <v>83.3</v>
+      </c>
+      <c r="J116" s="66">
+        <v>-11.04</v>
+      </c>
+      <c r="K116" s="67">
+        <v>70.65</v>
+      </c>
+      <c r="L116" s="68">
+        <v>88.52</v>
+      </c>
+      <c r="M116" s="69">
+        <v>59.85</v>
+      </c>
+      <c r="N116" s="70">
+        <v>58</v>
+      </c>
+      <c r="O116" s="71">
+        <v>186</v>
+      </c>
+      <c r="P116" s="71">
+        <v>-258</v>
+      </c>
+      <c r="Q116" s="75">
+        <v>-588</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="A117" s="59">
+        <v>43735</v>
+      </c>
+      <c r="C117" s="4">
+        <v>79.22</v>
+      </c>
+      <c r="D117" s="4">
+        <v>74.11</v>
+      </c>
+      <c r="E117" s="5">
+        <v>51.55</v>
+      </c>
+      <c r="F117" s="6">
+        <v>32</v>
+      </c>
+      <c r="G117" s="7">
+        <v>20.8</v>
+      </c>
+      <c r="H117" s="7">
+        <v>78.6</v>
+      </c>
+      <c r="I117" s="7">
+        <v>146.4</v>
+      </c>
+      <c r="J117" s="8">
+        <v>62.5</v>
+      </c>
+      <c r="K117" s="9">
+        <v>67.55</v>
+      </c>
+      <c r="L117" s="10">
+        <v>85.91</v>
+      </c>
+      <c r="M117" s="11">
+        <v>50.14</v>
+      </c>
+      <c r="N117" s="12">
+        <v>50</v>
+      </c>
+      <c r="O117" s="13">
+        <v>335</v>
+      </c>
+      <c r="P117" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q117" s="14">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="A118" s="59">
+        <v>43742</v>
+      </c>
+      <c r="C118" s="4">
+        <v>71.84</v>
+      </c>
+      <c r="D118" s="4">
+        <v>71.69</v>
+      </c>
+      <c r="E118" s="5">
+        <v>48.66</v>
+      </c>
+      <c r="F118" s="6">
+        <v>70</v>
+      </c>
+      <c r="G118" s="7">
+        <v>42.8</v>
+      </c>
+      <c r="H118" s="7">
+        <v>104</v>
+      </c>
+      <c r="I118" s="7">
+        <v>146.82</v>
+      </c>
+      <c r="J118" s="8">
+        <v>64.5</v>
+      </c>
+      <c r="K118" s="9">
+        <v>62.55</v>
+      </c>
+      <c r="L118" s="10">
+        <v>84.94</v>
+      </c>
+      <c r="M118" s="11">
+        <v>30.3</v>
+      </c>
+      <c r="N118" s="12">
+        <v>191</v>
+      </c>
+      <c r="O118" s="13">
+        <v>431</v>
+      </c>
+      <c r="P118" s="13">
+        <v>79</v>
+      </c>
+      <c r="Q118" s="14">
+        <v>-360</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119" s="59">
+        <f>A118+7</f>
+        <v>43749</v>
+      </c>
+      <c r="C119" s="4">
+        <v>78.88</v>
+      </c>
+      <c r="D119" s="65">
+        <v>74.5</v>
+      </c>
+      <c r="E119" s="5">
+        <v>65.86</v>
+      </c>
+      <c r="F119" s="6">
+        <v>68</v>
+      </c>
+      <c r="G119" s="7">
+        <v>74.8</v>
+      </c>
+      <c r="H119" s="7">
+        <v>107</v>
+      </c>
+      <c r="I119" s="7">
+        <v>131.3</v>
+      </c>
+      <c r="J119" s="8">
+        <v>55.12</v>
+      </c>
+      <c r="K119" s="9">
+        <v>64.87</v>
+      </c>
+      <c r="L119" s="10">
+        <v>84.56</v>
+      </c>
+      <c r="M119" s="11">
+        <v>37.88</v>
+      </c>
+      <c r="N119" s="12">
+        <v>206</v>
+      </c>
+      <c r="O119" s="13">
+        <v>515</v>
+      </c>
+      <c r="P119" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q119" s="14">
+        <v>-360</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120" s="59">
+        <f>A119+7</f>
+        <v>43756</v>
+      </c>
+      <c r="C120" s="4">
+        <v>81.18</v>
+      </c>
+      <c r="D120" s="4">
+        <v>75.91</v>
+      </c>
+      <c r="E120" s="5">
+        <v>67.31</v>
+      </c>
+      <c r="F120" s="6">
+        <v>53</v>
+      </c>
+      <c r="G120" s="7">
+        <v>74.8</v>
+      </c>
+      <c r="H120" s="7">
+        <v>93</v>
+      </c>
+      <c r="I120" s="7">
+        <v>99.62</v>
+      </c>
+      <c r="J120" s="8">
+        <v>46.8</v>
+      </c>
+      <c r="K120" s="9">
+        <v>70.31</v>
+      </c>
+      <c r="L120" s="10">
+        <v>89.19</v>
+      </c>
+      <c r="M120" s="11">
+        <v>54.29</v>
+      </c>
+      <c r="N120" s="12">
+        <v>189</v>
+      </c>
+      <c r="O120" s="13">
+        <v>541</v>
+      </c>
+      <c r="P120" s="13">
+        <v>-185</v>
+      </c>
+      <c r="Q120" s="14">
+        <v>-310</v>
       </c>
     </row>
   </sheetData>
@@ -19579,6 +20673,7 @@
     <mergeCell ref="R1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/database/DeepProcessOprationAndProfit.xlsx
+++ b/database/DeepProcessOprationAndProfit.xlsx
@@ -167,32 +167,16 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -205,8 +189,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,8 +227,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -242,37 +295,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -282,18 +304,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,21 +320,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,24 +406,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -431,6 +413,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +442,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -472,48 +544,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -526,43 +556,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,15 +631,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -651,45 +642,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,8 +664,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,16 +680,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,133 +746,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10990,15 +10990,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>26035</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>73660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>217170</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>683895</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -11007,7 +11007,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1238250" y="20942935"/>
+          <a:off x="1019175" y="22533610"/>
           <a:ext cx="10837545" cy="6555740"/>
           <a:chOff x="2162145" y="3041896"/>
           <a:chExt cx="10833998" cy="7287538"/>
@@ -11376,14 +11376,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH120"/>
+  <dimension ref="A1:AH123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B105" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T113" sqref="T113"/>
+      <selection pane="bottomRight" activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -20016,6 +20016,9 @@
       <c r="A108" s="59">
         <v>43672</v>
       </c>
+      <c r="B108" s="3">
+        <v>65.61</v>
+      </c>
       <c r="C108" s="60">
         <v>82.41</v>
       </c>
@@ -20066,6 +20069,9 @@
       <c r="A109" s="59">
         <v>43679</v>
       </c>
+      <c r="B109" s="3">
+        <v>64.02</v>
+      </c>
       <c r="C109" s="60">
         <v>82.41</v>
       </c>
@@ -20116,6 +20122,9 @@
       <c r="A110" s="59">
         <v>43686</v>
       </c>
+      <c r="B110" s="3">
+        <v>60.54</v>
+      </c>
       <c r="C110" s="60">
         <v>82.41</v>
       </c>
@@ -20166,6 +20175,9 @@
       <c r="A111" s="59">
         <v>43693</v>
       </c>
+      <c r="B111" s="3">
+        <v>61.35</v>
+      </c>
       <c r="C111" s="60">
         <v>82.41</v>
       </c>
@@ -20216,6 +20228,9 @@
       <c r="A112" s="59">
         <v>43700</v>
       </c>
+      <c r="B112" s="3">
+        <v>63.77</v>
+      </c>
       <c r="C112" s="60">
         <v>79.83</v>
       </c>
@@ -20266,6 +20281,9 @@
       <c r="A113" s="59">
         <v>43707</v>
       </c>
+      <c r="B113" s="3">
+        <v>67.02</v>
+      </c>
       <c r="C113" s="60">
         <v>77.91</v>
       </c>
@@ -20316,6 +20334,9 @@
       <c r="A114" s="59">
         <v>43714</v>
       </c>
+      <c r="B114" s="3">
+        <v>70.03</v>
+      </c>
       <c r="C114" s="60">
         <v>79.83</v>
       </c>
@@ -20366,6 +20387,9 @@
       <c r="A115" s="59">
         <v>43721</v>
       </c>
+      <c r="B115" s="3">
+        <v>70.74</v>
+      </c>
       <c r="C115" s="60">
         <v>79.83</v>
       </c>
@@ -20416,6 +20440,9 @@
       <c r="A116" s="59">
         <v>43728</v>
       </c>
+      <c r="B116" s="3">
+        <v>70.53</v>
+      </c>
       <c r="C116" s="60">
         <v>79.83</v>
       </c>
@@ -20466,6 +20493,9 @@
       <c r="A117" s="59">
         <v>43735</v>
       </c>
+      <c r="B117" s="3">
+        <v>69.69</v>
+      </c>
       <c r="C117" s="4">
         <v>79.22</v>
       </c>
@@ -20515,6 +20545,9 @@
     <row r="118" spans="1:17">
       <c r="A118" s="59">
         <v>43742</v>
+      </c>
+      <c r="B118" s="3">
+        <v>65.29</v>
       </c>
       <c r="C118" s="4">
         <v>71.84</v>
@@ -20567,6 +20600,9 @@
         <f>A118+7</f>
         <v>43749</v>
       </c>
+      <c r="B119" s="3">
+        <v>71.89</v>
+      </c>
       <c r="C119" s="4">
         <v>78.88</v>
       </c>
@@ -20618,6 +20654,9 @@
         <f>A119+7</f>
         <v>43756</v>
       </c>
+      <c r="B120" s="3">
+        <v>73.84</v>
+      </c>
       <c r="C120" s="4">
         <v>81.18</v>
       </c>
@@ -20662,6 +20701,168 @@
       </c>
       <c r="Q120" s="14">
         <v>-310</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" s="59">
+        <f>A120+7</f>
+        <v>43763</v>
+      </c>
+      <c r="B121" s="3">
+        <v>73.62</v>
+      </c>
+      <c r="C121" s="4">
+        <v>84.95</v>
+      </c>
+      <c r="D121" s="4">
+        <v>75.91</v>
+      </c>
+      <c r="E121" s="5">
+        <v>59.28</v>
+      </c>
+      <c r="F121" s="6">
+        <v>9</v>
+      </c>
+      <c r="G121" s="7">
+        <v>68.7</v>
+      </c>
+      <c r="H121" s="7">
+        <v>113</v>
+      </c>
+      <c r="I121" s="7">
+        <v>105.8</v>
+      </c>
+      <c r="J121" s="8">
+        <v>64.5</v>
+      </c>
+      <c r="K121" s="9">
+        <v>71.49</v>
+      </c>
+      <c r="L121" s="10">
+        <v>89.19</v>
+      </c>
+      <c r="M121" s="11">
+        <v>60.1</v>
+      </c>
+      <c r="N121" s="12">
+        <v>206</v>
+      </c>
+      <c r="O121" s="13">
+        <v>445</v>
+      </c>
+      <c r="P121" s="13">
+        <v>-155</v>
+      </c>
+      <c r="Q121" s="14">
+        <v>-340</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122" s="59">
+        <f>A121+7</f>
+        <v>43770</v>
+      </c>
+      <c r="B122" s="3">
+        <v>73.74</v>
+      </c>
+      <c r="C122" s="4">
+        <v>84.95</v>
+      </c>
+      <c r="D122" s="4">
+        <v>72.94</v>
+      </c>
+      <c r="E122" s="5">
+        <v>68.83</v>
+      </c>
+      <c r="F122" s="6">
+        <v>25</v>
+      </c>
+      <c r="G122" s="7">
+        <v>63.7</v>
+      </c>
+      <c r="H122" s="7">
+        <v>93</v>
+      </c>
+      <c r="I122" s="7">
+        <v>101.4</v>
+      </c>
+      <c r="J122" s="8">
+        <v>24.32</v>
+      </c>
+      <c r="K122" s="9">
+        <v>72.71</v>
+      </c>
+      <c r="L122" s="10">
+        <v>90.53</v>
+      </c>
+      <c r="M122" s="11">
+        <v>62.88</v>
+      </c>
+      <c r="N122" s="12">
+        <v>247</v>
+      </c>
+      <c r="O122" s="13">
+        <v>452</v>
+      </c>
+      <c r="P122" s="13">
+        <v>-185</v>
+      </c>
+      <c r="Q122" s="14">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="A123" s="59">
+        <f>A122+7</f>
+        <v>43777</v>
+      </c>
+      <c r="B123" s="3">
+        <v>74.05</v>
+      </c>
+      <c r="C123" s="4">
+        <v>79.03</v>
+      </c>
+      <c r="D123" s="4">
+        <v>77.74</v>
+      </c>
+      <c r="E123" s="5">
+        <v>68.83</v>
+      </c>
+      <c r="F123" s="6">
+        <v>31</v>
+      </c>
+      <c r="G123" s="7">
+        <v>48.7</v>
+      </c>
+      <c r="H123" s="7">
+        <v>33</v>
+      </c>
+      <c r="I123" s="7">
+        <v>109.8</v>
+      </c>
+      <c r="J123" s="8">
+        <v>23.28</v>
+      </c>
+      <c r="K123" s="9">
+        <v>72.32</v>
+      </c>
+      <c r="L123" s="10">
+        <v>91.56</v>
+      </c>
+      <c r="M123" s="11">
+        <v>56.75</v>
+      </c>
+      <c r="N123" s="12">
+        <v>222</v>
+      </c>
+      <c r="O123" s="13">
+        <v>336</v>
+      </c>
+      <c r="P123" s="13">
+        <v>-243</v>
+      </c>
+      <c r="Q123" s="14">
+        <v>-18</v>
       </c>
     </row>
   </sheetData>
